--- a/database/sidis/expdata/1013affinity01.xlsx
+++ b/database/sidis/expdata/1013affinity01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="25">
   <si>
     <t>Ebeam</t>
   </si>
@@ -77,6 +77,18 @@
   </si>
   <si>
     <t>affinity</t>
+  </si>
+  <si>
+    <t>hermes</t>
+  </si>
+  <si>
+    <t>k-</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>proton</t>
   </si>
 </sst>
 </file>
@@ -434,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -505,6 +517,656 @@
         <v>20</v>
       </c>
     </row>
+    <row r="2" spans="1:21">
+      <c r="A2">
+        <v>27.6</v>
+      </c>
+      <c r="B2">
+        <v>0.3332215647523502</v>
+      </c>
+      <c r="C2">
+        <v>5.242325</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2">
+        <v>273</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2">
+        <v>0.07168479</v>
+      </c>
+      <c r="I2">
+        <v>0.0003632607</v>
+      </c>
+      <c r="J2">
+        <v>6.191153999999999e-05</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2">
+        <v>0.0001457472</v>
+      </c>
+      <c r="N2">
+        <v>0.2539186</v>
+      </c>
+      <c r="O2">
+        <v>0.35</v>
+      </c>
+      <c r="P2">
+        <v>0.2</v>
+      </c>
+      <c r="Q2">
+        <v>0.398622301989769</v>
+      </c>
+      <c r="R2">
+        <v>0.8860594000000001</v>
+      </c>
+      <c r="S2">
+        <v>1.1</v>
+      </c>
+      <c r="T2">
+        <v>0.8</v>
+      </c>
+      <c r="U2">
+        <v>0.3860999999999738</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3">
+        <v>27.6</v>
+      </c>
+      <c r="B3">
+        <v>0.3333095127914252</v>
+      </c>
+      <c r="C3">
+        <v>5.235876</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <v>274</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3">
+        <v>0.1967335</v>
+      </c>
+      <c r="I3">
+        <v>0.001626191</v>
+      </c>
+      <c r="J3">
+        <v>0.0007981659</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3">
+        <v>0.001878978</v>
+      </c>
+      <c r="N3">
+        <v>0.2538119</v>
+      </c>
+      <c r="O3">
+        <v>0.35</v>
+      </c>
+      <c r="P3">
+        <v>0.2</v>
+      </c>
+      <c r="Q3">
+        <v>0.398299295766515</v>
+      </c>
+      <c r="R3">
+        <v>0.8541873</v>
+      </c>
+      <c r="S3">
+        <v>1.1</v>
+      </c>
+      <c r="T3">
+        <v>0.8</v>
+      </c>
+      <c r="U3">
+        <v>0.3816999999999743</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4">
+        <v>27.6</v>
+      </c>
+      <c r="B4">
+        <v>0.3332465261656717</v>
+      </c>
+      <c r="C4">
+        <v>5.24127</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>275</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4">
+        <v>0.3009145</v>
+      </c>
+      <c r="I4">
+        <v>0.00104013</v>
+      </c>
+      <c r="J4">
+        <v>0.0006700315</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4">
+        <v>0.001619964</v>
+      </c>
+      <c r="N4">
+        <v>0.2538812</v>
+      </c>
+      <c r="O4">
+        <v>0.35</v>
+      </c>
+      <c r="P4">
+        <v>0.2</v>
+      </c>
+      <c r="Q4">
+        <v>0.398600791040684</v>
+      </c>
+      <c r="R4">
+        <v>0.864262</v>
+      </c>
+      <c r="S4">
+        <v>1.1</v>
+      </c>
+      <c r="T4">
+        <v>0.8</v>
+      </c>
+      <c r="U4">
+        <v>0.3983999999999724</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5">
+        <v>27.6</v>
+      </c>
+      <c r="B5">
+        <v>0.333435508347988</v>
+      </c>
+      <c r="C5">
+        <v>5.233271</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>276</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5">
+        <v>0.4068753</v>
+      </c>
+      <c r="I5">
+        <v>0.00161557</v>
+      </c>
+      <c r="J5">
+        <v>0.0002340982</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5">
+        <v>0.0005659894</v>
+      </c>
+      <c r="N5">
+        <v>0.2535978</v>
+      </c>
+      <c r="O5">
+        <v>0.35</v>
+      </c>
+      <c r="P5">
+        <v>0.2</v>
+      </c>
+      <c r="Q5">
+        <v>0.398437227296941</v>
+      </c>
+      <c r="R5">
+        <v>0.9481632</v>
+      </c>
+      <c r="S5">
+        <v>1.1</v>
+      </c>
+      <c r="T5">
+        <v>0.8</v>
+      </c>
+      <c r="U5">
+        <v>0.4944999999999619</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6">
+        <v>27.6</v>
+      </c>
+      <c r="B6">
+        <v>0.3332289027092446</v>
+      </c>
+      <c r="C6">
+        <v>5.244379</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>277</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6">
+        <v>0.4828741</v>
+      </c>
+      <c r="I6">
+        <v>0.0006905526</v>
+      </c>
+      <c r="J6">
+        <v>0.0001772973</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6">
+        <v>0.0004290461</v>
+      </c>
+      <c r="N6">
+        <v>0.2538859</v>
+      </c>
+      <c r="O6">
+        <v>0.35</v>
+      </c>
+      <c r="P6">
+        <v>0.2</v>
+      </c>
+      <c r="Q6">
+        <v>0.398829848424427</v>
+      </c>
+      <c r="R6">
+        <v>0.9147403</v>
+      </c>
+      <c r="S6">
+        <v>1.1</v>
+      </c>
+      <c r="T6">
+        <v>0.8</v>
+      </c>
+      <c r="U6">
+        <v>0.4198999999999701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7">
+        <v>27.6</v>
+      </c>
+      <c r="B7">
+        <v>0.2043169226986019</v>
+      </c>
+      <c r="C7">
+        <v>9.218268999999999</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7">
+        <v>322</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7">
+        <v>0.1376062</v>
+      </c>
+      <c r="I7">
+        <v>0.005630807</v>
+      </c>
+      <c r="J7">
+        <v>0.001115745</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7">
+        <v>0.002703249</v>
+      </c>
+      <c r="N7">
+        <v>0.4100285</v>
+      </c>
+      <c r="O7">
+        <v>0.6</v>
+      </c>
+      <c r="P7">
+        <v>0.35</v>
+      </c>
+      <c r="Q7">
+        <v>0.434077723488268</v>
+      </c>
+      <c r="R7">
+        <v>0.6810677000000001</v>
+      </c>
+      <c r="S7">
+        <v>0.8</v>
+      </c>
+      <c r="T7">
+        <v>0.6</v>
+      </c>
+      <c r="U7">
+        <v>0.4586999999999658</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8">
+        <v>27.6</v>
+      </c>
+      <c r="B8">
+        <v>0.2044204064517454</v>
+      </c>
+      <c r="C8">
+        <v>9.206122000000001</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8">
+        <v>323</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8">
+        <v>0.1877466</v>
+      </c>
+      <c r="I8">
+        <v>0.01311177</v>
+      </c>
+      <c r="J8">
+        <v>0.005763918</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8">
+        <v>0.01396493</v>
+      </c>
+      <c r="N8">
+        <v>0.4099481</v>
+      </c>
+      <c r="O8">
+        <v>0.6</v>
+      </c>
+      <c r="P8">
+        <v>0.35</v>
+      </c>
+      <c r="Q8">
+        <v>0.433590755357832</v>
+      </c>
+      <c r="R8">
+        <v>0.6348661</v>
+      </c>
+      <c r="S8">
+        <v>0.8</v>
+      </c>
+      <c r="T8">
+        <v>0.6</v>
+      </c>
+      <c r="U8">
+        <v>0.3910999999999732</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9">
+        <v>27.6</v>
+      </c>
+      <c r="B9">
+        <v>0.2043116043560035</v>
+      </c>
+      <c r="C9">
+        <v>9.213259000000001</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9">
+        <v>325</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9">
+        <v>0.4153513</v>
+      </c>
+      <c r="I9">
+        <v>0.01405085</v>
+      </c>
+      <c r="J9">
+        <v>0.01144277</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9">
+        <v>0.0277135</v>
+      </c>
+      <c r="N9">
+        <v>0.4100563</v>
+      </c>
+      <c r="O9">
+        <v>0.6</v>
+      </c>
+      <c r="P9">
+        <v>0.35</v>
+      </c>
+      <c r="Q9">
+        <v>0.433812395777442</v>
+      </c>
+      <c r="R9">
+        <v>0.6377077</v>
+      </c>
+      <c r="S9">
+        <v>0.8</v>
+      </c>
+      <c r="T9">
+        <v>0.6</v>
+      </c>
+      <c r="U9">
+        <v>0.3440999999999784</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10">
+        <v>27.6</v>
+      </c>
+      <c r="B10">
+        <v>0.2044204064517454</v>
+      </c>
+      <c r="C10">
+        <v>9.206122000000001</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10">
+        <v>330</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10">
+        <v>0.2537261</v>
+      </c>
+      <c r="I10">
+        <v>0.006278239</v>
+      </c>
+      <c r="J10">
+        <v>0.00362718</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10">
+        <v>0.008766852</v>
+      </c>
+      <c r="N10">
+        <v>0.4099481</v>
+      </c>
+      <c r="O10">
+        <v>0.6</v>
+      </c>
+      <c r="P10">
+        <v>0.35</v>
+      </c>
+      <c r="Q10">
+        <v>0.433590755357832</v>
+      </c>
+      <c r="R10">
+        <v>0.8181022999999999</v>
+      </c>
+      <c r="S10">
+        <v>1.1</v>
+      </c>
+      <c r="T10">
+        <v>0.8</v>
+      </c>
+      <c r="U10">
+        <v>0.6559999999999441</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11">
+        <v>27.6</v>
+      </c>
+      <c r="B11">
+        <v>0.2044204064517454</v>
+      </c>
+      <c r="C11">
+        <v>9.206122000000001</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11">
+        <v>333</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11">
+        <v>0.5676492</v>
+      </c>
+      <c r="I11">
+        <v>0.003183489</v>
+      </c>
+      <c r="J11">
+        <v>0.001163574</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11">
+        <v>0.002812344</v>
+      </c>
+      <c r="N11">
+        <v>0.4099481</v>
+      </c>
+      <c r="O11">
+        <v>0.6</v>
+      </c>
+      <c r="P11">
+        <v>0.35</v>
+      </c>
+      <c r="Q11">
+        <v>0.433590755357832</v>
+      </c>
+      <c r="R11">
+        <v>0.922512</v>
+      </c>
+      <c r="S11">
+        <v>1.1</v>
+      </c>
+      <c r="T11">
+        <v>0.8</v>
+      </c>
+      <c r="U11">
+        <v>0.69279999999994</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
